--- a/source-master.xlsx
+++ b/source-master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivprasadpanchagiri/Documents/Nuqleous/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Documents\DigitalDi\Python Shiv\mohan_script\mohan_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2856E73-0DA5-D74A-AF70-FF58E45E3DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B120C-BC20-48B2-9920-CA9001787983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{D32566AC-B4DA-41DD-9D43-E8DE8046892B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D32566AC-B4DA-41DD-9D43-E8DE8046892B}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="1" r:id="rId1"/>
@@ -2770,9 +2770,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2810,7 +2810,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2916,7 +2916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3058,7 +3058,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3069,25 +3069,25 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" customWidth="1"/>
-    <col min="9" max="9" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.5" customWidth="1"/>
-    <col min="11" max="12" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6328125" customWidth="1"/>
+    <col min="9" max="9" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.453125" customWidth="1"/>
+    <col min="11" max="12" width="69.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>444</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" s="15" t="s">
         <v>445</v>
       </c>
@@ -3496,20 +3496,20 @@
   </sheetPr>
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="51.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="51.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6144,16 +6144,16 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="51.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="51.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8781,21 +8781,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3FF7C-766C-4B83-A828-15228C7BB767}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="46.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -9317,17 +9317,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="50.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="50.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9587,17 +9587,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="68.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="68.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>16</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>17</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>18</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>19</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9747,15 +9747,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10170,16 +10170,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10285,16 +10285,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10432,16 +10432,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11119,16 +11119,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
